--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc0091691\Documents\GitHub\hogetest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bc0091691\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA7E7D9-C5F8-4956-A8C1-7D4B139E3B48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05424E-3766-480F-8598-E426C5F83880}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3615" windowWidth="21600" windowHeight="12735" xr2:uid="{C243E267-FEDF-4BC0-8F5E-62E3C3BD5366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
